--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3605.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3605.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.465738825077555</v>
+        <v>1.256674408912659</v>
       </c>
       <c r="B1">
-        <v>2.960053262156298</v>
+        <v>2.593246698379517</v>
       </c>
       <c r="C1">
-        <v>3.967479484927066</v>
+        <v>4.996026992797852</v>
       </c>
       <c r="D1">
-        <v>1.79618785770043</v>
+        <v>1.998872756958008</v>
       </c>
       <c r="E1">
-        <v>0.8063058136334974</v>
+        <v>1.156558632850647</v>
       </c>
     </row>
   </sheetData>
